--- a/Model.xlsx
+++ b/Model.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pdf" sheetId="1" r:id="rId1"/>
     <sheet name="html" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -105,11 +110,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -174,7 +179,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,17 +473,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="2.5" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="7" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
@@ -794,47 +798,46 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="71.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="5" width="4.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="5" width="4.83203125" customWidth="1"/>
+    <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="B1" s="2">
         <v>41518</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2">
-        <v>41883</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -844,14 +847,10 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <f>+B3*(1+10%)</f>
-        <v>2421.1000000000004</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -859,23 +858,18 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="6">
-        <f>+F3/B3-1</f>
-        <v>0.10000000000000009</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -885,28 +879,20 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <f>+B6*(1+10%)</f>
-        <v>1488.3000000000002</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
         <v>848</v>
       </c>
-      <c r="F7" s="1">
-        <f>+B7*(1+10%)</f>
-        <v>932.80000000000007</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -914,40 +900,27 @@
         <f>+B7/B$3</f>
         <v>0.38527941844616082</v>
       </c>
-      <c r="F8" s="6">
-        <f>+F7/F$3</f>
-        <v>0.38527941844616082</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:7">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1">
-        <f>+B10*(1+10%)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11">
         <v>127</v>
       </c>
-      <c r="F11" s="1">
-        <f>+B11*(1+10%)</f>
-        <v>139.70000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
@@ -955,29 +928,18 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="6">
-        <f>+F11/B11-1</f>
-        <v>0.10000000000000009</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14">
         <v>146</v>
       </c>
-      <c r="F14" s="1">
-        <f>+B14*(1+10%)</f>
-        <v>160.60000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
@@ -985,29 +947,18 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="6">
-        <f>+F14/B14-1</f>
-        <v>0.10000000000000009</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17">
         <v>273</v>
       </c>
-      <c r="F17" s="1">
-        <f>+B17*(1+10%)</f>
-        <v>300.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="8" t="s">
         <v>8</v>
       </c>
@@ -1015,30 +966,19 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="6">
-        <f>+F17/B17-1</f>
-        <v>0.10000000000000009</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20">
         <v>575</v>
       </c>
-      <c r="F20" s="1">
-        <f>+B20*(1+10%)</f>
-        <v>632.5</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1">
       <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
@@ -1046,112 +986,73 @@
         <f>+B20/B$3</f>
         <v>0.2612448886869605</v>
       </c>
-      <c r="F21" s="6">
-        <f>+F20/F$3</f>
-        <v>0.26124488868696044</v>
-      </c>
+      <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:7">
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>16</v>
       </c>
       <c r="B23">
         <v>144</v>
       </c>
-      <c r="F23" s="1">
-        <f>+B23*(1+10%)</f>
-        <v>158.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24">
         <v>719</v>
       </c>
-      <c r="F24" s="1">
-        <f>+B24*(1+10%)</f>
-        <v>790.90000000000009</v>
-      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>13</v>
       </c>
       <c r="B25">
         <v>208</v>
       </c>
-      <c r="F25" s="1">
-        <f>+B25*(1+10%)</f>
-        <v>228.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26">
         <v>511</v>
       </c>
-      <c r="F26" s="1">
-        <f>+B26*(1+10%)</f>
-        <v>562.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+    </row>
+    <row r="27" spans="1:7">
       <c r="B27">
         <v>292</v>
       </c>
-      <c r="F27" s="1">
-        <f>+B27*(1+10%)</f>
-        <v>321.20000000000005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>6</v>
       </c>
       <c r="B29">
         <v>0.89</v>
       </c>
-      <c r="F29" s="9">
-        <f>+B29*(1+10%)</f>
-        <v>0.97900000000000009</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>11</v>
       </c>
       <c r="B30">
         <v>0.89</v>
       </c>
-      <c r="F30" s="9">
-        <f>+B30*(1+10%)</f>
-        <v>0.97900000000000009</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1161,14 +1062,10 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1">
-        <f>+B33</f>
-        <v>571402566</v>
-      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8">
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -1178,26 +1075,32 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1">
-        <f>+B34</f>
-        <v>571404028</v>
-      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Model.xlsx
+++ b/Model.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Revenues</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>S&amp;M Expenses</t>
+  </si>
+  <si>
+    <t>Demo</t>
   </si>
 </sst>
 </file>
@@ -808,10 +811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1077,6 +1080,11 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Model.xlsx
+++ b/Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="25600" windowHeight="14460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pdf" sheetId="1" r:id="rId1"/>
@@ -814,14 +814,16 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="71.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="5" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" customWidth="1"/>
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -831,7 +833,9 @@
         <v>41518</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2">
+        <v>41883</v>
+      </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:7">
